--- a/sql notesxlsx.xlsx
+++ b/sql notesxlsx.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27960" windowHeight="12600" tabRatio="816"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27960" windowHeight="12600" tabRatio="816" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Products(Ürünler)" sheetId="4" r:id="rId4"/>
     <sheet name="Orders(Siparişler)" sheetId="5" r:id="rId5"/>
     <sheet name="OrderDetails(SiparişDetayı)" sheetId="6" r:id="rId6"/>
+    <sheet name="Sayfa1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="123">
   <si>
     <t>RBDMS</t>
   </si>
@@ -361,6 +362,33 @@
   </si>
   <si>
     <t>Data Transformation Object</t>
+  </si>
+  <si>
+    <t>Data Access Layer</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>User Interface</t>
+  </si>
+  <si>
+    <t>Form sayfaları, web sayfaları</t>
+  </si>
+  <si>
+    <t>İş katmanı</t>
+  </si>
+  <si>
+    <t>Veri erişim katmanı</t>
+  </si>
+  <si>
+    <t>Sql, Oracle, MSql</t>
+  </si>
+  <si>
+    <t>Data Trasfer Object</t>
   </si>
 </sst>
 </file>
@@ -703,7 +731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1732,4 +1760,62 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>